--- a/output/1Y_P73_1VAL-D.xlsx
+++ b/output/1Y_P73_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.7873</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>562.1989</v>
       </c>
-      <c r="G2" s="1">
-        <v>562.1989</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.165300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.7873</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.165300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>18.1269</v>
       </c>
+      <c r="E3" s="1">
+        <v>562.1989</v>
+      </c>
       <c r="F3" s="1">
         <v>551.6663</v>
       </c>
-      <c r="G3" s="1">
-        <v>1113.8652</v>
-      </c>
       <c r="H3" s="1">
-        <v>20086.2194</v>
+        <v>10138.076</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.9555</v>
+        <v>10138.076</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7873</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20086.2194</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0069</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.8817</v>
       </c>
+      <c r="E4" s="1">
+        <v>1113.8652</v>
+      </c>
       <c r="F4" s="1">
         <v>559.2309</v>
       </c>
-      <c r="G4" s="1">
-        <v>1673.0961</v>
-      </c>
       <c r="H4" s="1">
-        <v>29762.707</v>
+        <v>19814.5477</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9308</v>
+        <v>19814.5477</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.9555</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29762.707</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0108</v>
+        <v>-0.0161</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>17.8917</v>
       </c>
+      <c r="E5" s="1">
+        <v>1673.0961</v>
+      </c>
       <c r="F5" s="1">
         <v>558.9184</v>
       </c>
-      <c r="G5" s="1">
-        <v>2232.0145</v>
-      </c>
       <c r="H5" s="1">
-        <v>39727.6262</v>
+        <v>29779.4379</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>-0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.921</v>
+        <v>29779.4379</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9308</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39727.6262</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0009</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.2541</v>
       </c>
+      <c r="E6" s="1">
+        <v>2232.0145</v>
+      </c>
       <c r="F6" s="1">
         <v>615.2294000000001</v>
       </c>
-      <c r="G6" s="1">
-        <v>2847.2439</v>
-      </c>
       <c r="H6" s="1">
-        <v>46039.3643</v>
+        <v>36091.2282</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.5608</v>
+        <v>36091.2282</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.921</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.5</v>
       </c>
-      <c r="L6" s="1">
-        <v>1004.4065</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8995.593500000001</v>
+        <v>752.8933</v>
       </c>
       <c r="O6" s="1">
-        <v>1004.4065</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>47043.7709</v>
+        <v>-9247.1067</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.054</v>
+        <v>-0.0927</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>15.4549</v>
       </c>
+      <c r="E7" s="1">
+        <v>2847.2439</v>
+      </c>
       <c r="F7" s="1">
-        <v>656.3282</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3503.5721</v>
+        <v>654.0033</v>
       </c>
       <c r="H7" s="1">
-        <v>53866.3698</v>
+        <v>43775.5207</v>
       </c>
       <c r="I7" s="1">
-        <v>60143.4866</v>
+        <v>752.8933</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1663</v>
+        <v>44528.414</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50107.5562</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.5986</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10143.4866</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>860.9199</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>54727.2897</v>
+        <v>-10107.5562</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0406</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>15.6183</v>
       </c>
+      <c r="E8" s="1">
+        <v>3501.2472</v>
+      </c>
       <c r="F8" s="1">
-        <v>649.4616</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4153.0337</v>
+        <v>647.1611</v>
       </c>
       <c r="H8" s="1">
-        <v>64526.9309</v>
+        <v>54399.9286</v>
       </c>
       <c r="I8" s="1">
-        <v>70286.9733</v>
+        <v>645.3371</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9242</v>
+        <v>55045.2657</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60215.1124</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.1982</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10143.4866</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>717.4332000000001</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>65244.3642</v>
+        <v>-10107.5562</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.008</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>16.0526</v>
       </c>
+      <c r="E9" s="1">
+        <v>4148.4083</v>
+      </c>
       <c r="F9" s="1">
-        <v>631.8905999999999</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4784.9243</v>
+        <v>629.6523</v>
       </c>
       <c r="H9" s="1">
-        <v>76411.89169999999</v>
+        <v>66247.17720000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80430.4599</v>
+        <v>537.7809</v>
       </c>
       <c r="J9" s="1">
-        <v>16.8091</v>
+        <v>66784.9581</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70322.6685</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.9517</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10143.4866</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>573.9466</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>76985.8382</v>
+        <v>-10107.5562</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0231</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>15.7562</v>
       </c>
+      <c r="E10" s="1">
+        <v>4778.0606</v>
+      </c>
       <c r="F10" s="1">
-        <v>643.7775</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5428.7018</v>
+        <v>641.4971</v>
       </c>
       <c r="H10" s="1">
-        <v>85092.186</v>
+        <v>74893.711</v>
       </c>
       <c r="I10" s="1">
-        <v>90573.9466</v>
+        <v>430.2247</v>
       </c>
       <c r="J10" s="1">
-        <v>16.6843</v>
+        <v>75323.93580000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80430.22470000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8332</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10143.4866</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>430.4599</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>85522.6459</v>
+        <v>-10107.5562</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0168</v>
+        <v>-0.019</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.3605</v>
       </c>
+      <c r="E11" s="1">
+        <v>5419.5577</v>
+      </c>
       <c r="F11" s="1">
-        <v>660.3617</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6089.0635</v>
+        <v>658.0226</v>
       </c>
       <c r="H11" s="1">
-        <v>93045.7619</v>
+        <v>82815.177</v>
       </c>
       <c r="I11" s="1">
-        <v>100717.4332</v>
+        <v>322.6685</v>
       </c>
       <c r="J11" s="1">
-        <v>16.5407</v>
+        <v>83137.8456</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90537.7809</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.7058</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10143.4866</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>286.9733</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>93332.7352</v>
+        <v>-10107.5562</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0229</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>15.2796</v>
       </c>
+      <c r="E12" s="1">
+        <v>6077.5803</v>
+      </c>
       <c r="F12" s="1">
-        <v>663.8581</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6752.9217</v>
+        <v>661.5066</v>
       </c>
       <c r="H12" s="1">
-        <v>102646.435</v>
+        <v>92381.0436</v>
       </c>
       <c r="I12" s="1">
-        <v>110860.9199</v>
+        <v>215.1124</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4167</v>
+        <v>92596.156</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100645.3371</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.5601</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10143.4866</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>143.4866</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>102789.9217</v>
+        <v>-10107.5562</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>15.4022</v>
       </c>
+      <c r="E13" s="1">
+        <v>6739.0869</v>
+      </c>
       <c r="F13" s="1">
-        <v>658.5739</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7411.4955</v>
+        <v>656.2411</v>
       </c>
       <c r="H13" s="1">
-        <v>113561.158</v>
+        <v>103258.3109</v>
       </c>
       <c r="I13" s="1">
-        <v>121004.4065</v>
+        <v>107.5562</v>
       </c>
       <c r="J13" s="1">
-        <v>16.3266</v>
+        <v>103365.8671</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110752.8933</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.4344</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10143.4866</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>113561.158</v>
+        <v>-10107.5562</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0068</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.042</v>
       </c>
+      <c r="E14" s="1">
+        <v>7395.3279</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7411.4955</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6739.0869</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118021.2992</v>
       </c>
       <c r="I14" s="1">
-        <v>121004.4065</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.3266</v>
+        <v>118021.2992</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110752.8933</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.9761</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118279.3161</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118279.3161</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118279.3161</v>
+        <v>107548.4136</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0427</v>
+        <v>0.0411</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.7873</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>562.1989</v>
       </c>
       <c r="G2" s="1">
-        <v>562.1989</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.165300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.7873</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.165300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>18.1269</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>562.1989</v>
       </c>
       <c r="F3" s="1">
         <v>546.8851</v>
       </c>
       <c r="G3" s="1">
-        <v>1109.084</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10138.076</v>
       </c>
       <c r="I3" s="1">
-        <v>19913.3312</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.9548</v>
+        <v>10138.076</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9913.331200000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6331</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9913.331200000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>86.6688</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20086.6688</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0069</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.8817</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1109.084</v>
       </c>
       <c r="F4" s="1">
         <v>564.0777</v>
       </c>
       <c r="G4" s="1">
-        <v>1673.1617</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29763.8733</v>
+        <v>19729.4944</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>86.6688</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9301</v>
+        <v>19816.1633</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>18.0329</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10086.6688</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29763.8733</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0107</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>17.8917</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1673.1617</v>
       </c>
       <c r="F5" s="1">
         <v>558.9184</v>
       </c>
       <c r="G5" s="1">
-        <v>2232.0801</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>39728.7931</v>
+        <v>29780.6049</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.9205</v>
+        <v>29780.6049</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9301</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39728.7931</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0009</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.2541</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2232.0801</v>
       </c>
       <c r="F6" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2847.3095</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>46040.4245</v>
+        <v>36092.2883</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.5604</v>
+        <v>36092.2883</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.9205</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.5</v>
       </c>
-      <c r="L6" s="1">
-        <v>1004.436</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8995.564</v>
+        <v>752.9228000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>1004.436</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>47044.8605</v>
+        <v>-9247.0772</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.054</v>
+        <v>-0.0927</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>15.4549</v>
       </c>
       <c r="E7" s="1">
+        <v>2847.3095</v>
+      </c>
+      <c r="F7" s="1">
+        <v>695.7614</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>712.0354</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3559.3449</v>
-      </c>
       <c r="H7" s="1">
-        <v>54723.8595</v>
+        <v>43776.5287</v>
       </c>
       <c r="I7" s="1">
-        <v>61004.436</v>
+        <v>752.9228000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1392</v>
+        <v>44529.4515</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50752.9228</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.8249</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11004.436</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>54723.8595</v>
+        <v>-10752.9228</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0407</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>15.6183</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3543.0709</v>
       </c>
       <c r="F8" s="1">
         <v>640.2745</v>
       </c>
       <c r="G8" s="1">
-        <v>4199.6194</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>65250.7467</v>
+        <v>55049.7547</v>
       </c>
       <c r="I8" s="1">
-        <v>71004.436</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9074</v>
+        <v>55049.7547</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60752.9228</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.147</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>65250.7467</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0081</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>16.0526</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4183.3454</v>
       </c>
       <c r="F9" s="1">
         <v>622.952</v>
       </c>
       <c r="G9" s="1">
-        <v>4822.5715</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>77013.0904</v>
+        <v>66805.0977</v>
       </c>
       <c r="I9" s="1">
-        <v>81004.436</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7969</v>
+        <v>66805.0977</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70752.9228</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.913</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77013.0904</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0234</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>15.7562</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4806.2974</v>
       </c>
       <c r="F10" s="1">
         <v>634.6708</v>
       </c>
       <c r="G10" s="1">
-        <v>5457.2423</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>85539.5438</v>
+        <v>75336.30929999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91004.436</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.6759</v>
+        <v>75336.30929999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80752.9228</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8015</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85539.5438</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0169</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.3605</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5440.9682</v>
       </c>
       <c r="F11" s="1">
         <v>651.0205</v>
       </c>
       <c r="G11" s="1">
-        <v>6108.2627</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>93339.14109999999</v>
+        <v>83142.3475</v>
       </c>
       <c r="I11" s="1">
-        <v>101004.436</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.5357</v>
+        <v>83142.3475</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90752.9228</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6796</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>93339.14109999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.023</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>15.2796</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>6091.9887</v>
       </c>
       <c r="F12" s="1">
         <v>654.4674</v>
       </c>
       <c r="G12" s="1">
-        <v>6762.7301</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>102795.5267</v>
+        <v>92600.0561</v>
       </c>
       <c r="I12" s="1">
-        <v>111004.436</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4141</v>
+        <v>92600.0561</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100752.9228</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.5386</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>102795.5267</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>15.4022</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6746.4561</v>
       </c>
       <c r="F13" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7411.988</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>113568.7041</v>
+        <v>103371.2245</v>
       </c>
       <c r="I13" s="1">
-        <v>121004.436</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.3255</v>
+        <v>103371.2245</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110752.9228</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.4165</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>113568.7041</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0069</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>16.042</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7395.714</v>
       </c>
       <c r="F14" s="1">
-        <v>-7411.988</v>
+        <v>-7395.714</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118027.4603</v>
       </c>
       <c r="I14" s="1">
-        <v>121004.436</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.3255</v>
+        <v>118027.4603</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110752.9228</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.9753</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118287.1757</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118287.1757</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118287.1757</v>
+        <v>118027.4603</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0427</v>
+        <v>0.0411</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.7873</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>562.1989</v>
       </c>
       <c r="G2" s="1">
-        <v>562.1989</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.165300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.7873</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.165300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>18.1269</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>562.1989</v>
       </c>
       <c r="F3" s="1">
         <v>549.6578</v>
       </c>
       <c r="G3" s="1">
-        <v>1111.8567</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10138.076</v>
       </c>
       <c r="I3" s="1">
-        <v>19963.5918</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.9552</v>
+        <v>10138.076</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9963.5918</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7225</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9963.5918</v>
       </c>
-      <c r="O3" s="1">
-        <v>36.4082</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20086.4082</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0069</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.8817</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1111.8567</v>
       </c>
       <c r="F4" s="1">
         <v>561.2670000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1673.1237</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29763.1969</v>
+        <v>19778.8182</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>36.4082</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9305</v>
+        <v>19815.2264</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.9879</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10036.4082</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29763.1969</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0107</v>
+        <v>-0.016</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>17.8917</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1673.1237</v>
       </c>
       <c r="F5" s="1">
         <v>558.9184</v>
       </c>
       <c r="G5" s="1">
-        <v>2232.042</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>39728.1164</v>
+        <v>29779.9282</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.9208</v>
+        <v>29779.9282</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9305</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39728.1164</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0009</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.2541</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2232.042</v>
       </c>
       <c r="F6" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2847.2714</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>46039.8097</v>
+        <v>36091.6735</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.5607</v>
+        <v>36091.6735</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.9208</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.5</v>
       </c>
-      <c r="L6" s="1">
-        <v>1004.4189</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8995.581099999999</v>
+        <v>752.9057</v>
       </c>
       <c r="O6" s="1">
-        <v>1004.4189</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>47044.2286</v>
+        <v>-9247.094300000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.054</v>
+        <v>-0.0927</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>15.4549</v>
       </c>
       <c r="E7" s="1">
+        <v>2847.2714</v>
+      </c>
+      <c r="F7" s="1">
+        <v>695.7603</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>712.0343</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3559.3057</v>
-      </c>
       <c r="H7" s="1">
-        <v>54723.2579</v>
+        <v>43775.9442</v>
       </c>
       <c r="I7" s="1">
-        <v>61004.4189</v>
+        <v>752.9057</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1394</v>
+        <v>44528.8498</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50752.9057</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.8251</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11004.4189</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>54723.2579</v>
+        <v>-10752.9057</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0407</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>15.6183</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3543.0317</v>
       </c>
       <c r="F8" s="1">
         <v>640.2745</v>
       </c>
       <c r="G8" s="1">
-        <v>4199.5803</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>65250.1388</v>
+        <v>55049.1468</v>
       </c>
       <c r="I8" s="1">
-        <v>71004.4189</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9075</v>
+        <v>55049.1468</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60752.9057</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.1472</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>65250.1388</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0081</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>16.0526</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4183.3063</v>
       </c>
       <c r="F9" s="1">
         <v>622.952</v>
       </c>
       <c r="G9" s="1">
-        <v>4822.5323</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>77012.4656</v>
+        <v>66804.47289999999</v>
       </c>
       <c r="I9" s="1">
-        <v>81004.4189</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7971</v>
+        <v>66804.47289999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70752.9057</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.9132</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77012.4656</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0234</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>15.7562</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4806.2583</v>
       </c>
       <c r="F10" s="1">
         <v>634.6708</v>
       </c>
       <c r="G10" s="1">
-        <v>5457.2031</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>85538.9304</v>
+        <v>75335.696</v>
       </c>
       <c r="I10" s="1">
-        <v>91004.4189</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.676</v>
+        <v>75335.696</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80752.9057</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8016</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85538.9304</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0169</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.3605</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5440.9291</v>
       </c>
       <c r="F11" s="1">
         <v>651.0205</v>
       </c>
       <c r="G11" s="1">
-        <v>6108.2236</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>93338.5432</v>
+        <v>83141.7496</v>
       </c>
       <c r="I11" s="1">
-        <v>101004.4189</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.5358</v>
+        <v>83141.7496</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90752.9057</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6797</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>93338.5432</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.023</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>15.2796</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>6091.9496</v>
       </c>
       <c r="F12" s="1">
         <v>654.4674</v>
       </c>
       <c r="G12" s="1">
-        <v>6762.691</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>102794.932</v>
+        <v>92599.4613</v>
       </c>
       <c r="I12" s="1">
-        <v>111004.4189</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4142</v>
+        <v>92599.4613</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100752.9057</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.5387</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>102794.932</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>15.4022</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6746.417</v>
       </c>
       <c r="F13" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7411.9489</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113568.1046</v>
+        <v>103370.6249</v>
       </c>
       <c r="I13" s="1">
-        <v>121004.4189</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.3256</v>
+        <v>103370.6249</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110752.9057</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.4166</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>113568.1046</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0069</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>16.042</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7395.6749</v>
       </c>
       <c r="F14" s="1">
-        <v>-7411.9489</v>
+        <v>-7395.6749</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118026.8359</v>
       </c>
       <c r="I14" s="1">
-        <v>121004.4189</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.3256</v>
+        <v>118026.8359</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110752.9057</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.9754</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118286.5512</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118286.5512</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118286.5512</v>
+        <v>118026.8359</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0427</v>
+        <v>0.0411</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.7873</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>562.1989</v>
       </c>
       <c r="G2" s="1">
-        <v>562.1989</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.165300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.7873</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.165300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>18.1269</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>562.1989</v>
       </c>
       <c r="F3" s="1">
         <v>552.4305000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1114.6294</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10138.076</v>
       </c>
       <c r="I3" s="1">
-        <v>20013.8524</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.9556</v>
+        <v>10138.076</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10013.8524</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.8119</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10013.8524</v>
       </c>
-      <c r="O3" s="1">
-        <v>-13.8524</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20086.1476</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0069</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.8817</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1114.6294</v>
       </c>
       <c r="F4" s="1">
         <v>558.4563000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>1673.0856</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29762.5206</v>
+        <v>19828.1419</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-13.8524</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9309</v>
+        <v>19814.2895</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.9432</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9986.1476</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29762.5206</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0108</v>
+        <v>-0.0161</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>17.8917</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1673.0856</v>
       </c>
       <c r="F5" s="1">
         <v>558.9184</v>
       </c>
       <c r="G5" s="1">
-        <v>2232.004</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>39727.4397</v>
+        <v>29779.2514</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.9211</v>
+        <v>29779.2514</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9309</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39727.4397</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0009</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.2541</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2232.004</v>
       </c>
       <c r="F6" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2847.2334</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>46039.1949</v>
+        <v>36091.0587</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.5609</v>
+        <v>36091.0587</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.9211</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.5</v>
       </c>
-      <c r="L6" s="1">
-        <v>1004.4018</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8995.5982</v>
+        <v>752.8885</v>
       </c>
       <c r="O6" s="1">
-        <v>1004.4018</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>47043.5967</v>
+        <v>-9247.111500000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.054</v>
+        <v>-0.0927</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>15.4549</v>
       </c>
       <c r="E7" s="1">
+        <v>2847.2334</v>
+      </c>
+      <c r="F7" s="1">
+        <v>695.7592</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>712.0332</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3559.2666</v>
-      </c>
       <c r="H7" s="1">
-        <v>54722.6564</v>
+        <v>43775.3596</v>
       </c>
       <c r="I7" s="1">
-        <v>61004.4018</v>
+        <v>752.8885</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1396</v>
+        <v>44528.2481</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50752.8885</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.8253</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11004.4018</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>54722.6564</v>
+        <v>-10752.8885</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0407</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>15.6183</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3542.9926</v>
       </c>
       <c r="F8" s="1">
         <v>640.2745</v>
       </c>
       <c r="G8" s="1">
-        <v>4199.5412</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>65249.5309</v>
+        <v>55048.5389</v>
       </c>
       <c r="I8" s="1">
-        <v>71004.40180000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9077</v>
+        <v>55048.5389</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60752.8885</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.1473</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>65249.5309</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0081</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>16.0526</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4183.2671</v>
       </c>
       <c r="F9" s="1">
         <v>622.952</v>
       </c>
       <c r="G9" s="1">
-        <v>4822.4932</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>77011.8407</v>
+        <v>66803.848</v>
       </c>
       <c r="I9" s="1">
-        <v>81004.40180000001</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7972</v>
+        <v>66803.848</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70752.8885</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.9133</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77011.8407</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0234</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>15.7562</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4806.2192</v>
       </c>
       <c r="F10" s="1">
         <v>634.6708</v>
       </c>
       <c r="G10" s="1">
-        <v>5457.164</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>85538.3171</v>
+        <v>75335.0827</v>
       </c>
       <c r="I10" s="1">
-        <v>91004.40180000001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.6761</v>
+        <v>75335.0827</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80752.8885</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8017</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85538.3171</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0169</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.3605</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5440.89</v>
       </c>
       <c r="F11" s="1">
         <v>651.0205</v>
       </c>
       <c r="G11" s="1">
-        <v>6108.1845</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>93337.94530000001</v>
+        <v>83141.1517</v>
       </c>
       <c r="I11" s="1">
-        <v>101004.4018</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.5359</v>
+        <v>83141.1517</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90752.8885</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6798</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>93337.94530000001</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.023</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>15.2796</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>6091.9105</v>
       </c>
       <c r="F12" s="1">
         <v>654.4674</v>
       </c>
       <c r="G12" s="1">
-        <v>6762.6519</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>102794.3372</v>
+        <v>92598.86659999999</v>
       </c>
       <c r="I12" s="1">
-        <v>111004.4018</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4143</v>
+        <v>92598.86659999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100752.8885</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.5388</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>102794.3372</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>15.4022</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6746.3779</v>
       </c>
       <c r="F13" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7411.9098</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>113567.5051</v>
+        <v>103370.0254</v>
       </c>
       <c r="I13" s="1">
-        <v>121004.4018</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.3257</v>
+        <v>103370.0254</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110752.8885</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.4166</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>113567.5051</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0069</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>16.042</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7395.6358</v>
       </c>
       <c r="F14" s="1">
-        <v>-7411.9098</v>
+        <v>-7395.6358</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118026.2114</v>
       </c>
       <c r="I14" s="1">
-        <v>121004.4018</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.3257</v>
+        <v>118026.2114</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110752.8885</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.9754</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118285.9268</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118285.9268</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118285.9268</v>
+        <v>118026.2114</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0427</v>
+        <v>0.0411</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.7873</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>562.1989</v>
       </c>
       <c r="G2" s="1">
-        <v>562.1989</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.165300000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.7873</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.165300000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>18.1269</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>562.1989</v>
       </c>
       <c r="F3" s="1">
         <v>551.6663</v>
       </c>
       <c r="G3" s="1">
-        <v>1113.8652</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20086.2194</v>
+        <v>10138.076</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.9555</v>
+        <v>10138.076</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.7873</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20086.2194</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0069</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.8817</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1113.8652</v>
       </c>
       <c r="F4" s="1">
         <v>559.2309</v>
       </c>
       <c r="G4" s="1">
-        <v>1673.0961</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29762.707</v>
+        <v>19814.5477</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.9308</v>
+        <v>19814.5477</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.9555</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29762.707</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.0108</v>
+        <v>-0.0161</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>17.8917</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1673.0961</v>
       </c>
       <c r="F5" s="1">
         <v>558.9184</v>
       </c>
       <c r="G5" s="1">
-        <v>2232.0145</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>39727.6262</v>
+        <v>29779.4379</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.921</v>
+        <v>29779.4379</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.9308</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>39727.6262</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0009</v>
+        <v>-0.0012</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.2541</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2232.0145</v>
       </c>
       <c r="F6" s="1">
         <v>615.2294000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2847.2439</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>46039.3643</v>
+        <v>36091.2282</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>17.5608</v>
+        <v>36091.2282</v>
       </c>
       <c r="K6" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17.921</v>
+      </c>
+      <c r="M6" s="1">
         <v>0.5</v>
       </c>
-      <c r="L6" s="1">
-        <v>1004.4065</v>
-      </c>
-      <c r="M6" s="1">
-        <v>10000</v>
-      </c>
       <c r="N6" s="1">
-        <v>-8995.593500000001</v>
+        <v>752.8933</v>
       </c>
       <c r="O6" s="1">
-        <v>1004.4065</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>47043.7709</v>
+        <v>-9247.1067</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.054</v>
+        <v>-0.0927</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>15.4549</v>
       </c>
       <c r="E7" s="1">
+        <v>2847.2439</v>
+      </c>
+      <c r="F7" s="1">
+        <v>695.7595</v>
+      </c>
+      <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
-      <c r="F7" s="1">
-        <v>712.0335</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3559.2774</v>
-      </c>
       <c r="H7" s="1">
-        <v>54722.8222</v>
+        <v>43775.5207</v>
       </c>
       <c r="I7" s="1">
-        <v>61004.4065</v>
+        <v>752.8933</v>
       </c>
       <c r="J7" s="1">
-        <v>17.1395</v>
+        <v>44528.414</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50752.8933</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.8253</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-11004.4065</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>54722.8222</v>
+        <v>-10752.8933</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0407</v>
+        <v>-0.0339</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>15.6183</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3543.0034</v>
       </c>
       <c r="F8" s="1">
         <v>640.2745</v>
       </c>
       <c r="G8" s="1">
-        <v>4199.5519</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>65249.6984</v>
+        <v>55048.7064</v>
       </c>
       <c r="I8" s="1">
-        <v>71004.4065</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>16.9076</v>
+        <v>55048.7064</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60752.8933</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.1473</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>65249.6984</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0081</v>
+        <v>0.0095</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>16.0526</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4183.2779</v>
       </c>
       <c r="F9" s="1">
         <v>622.952</v>
       </c>
       <c r="G9" s="1">
-        <v>4822.504</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>77012.01300000001</v>
+        <v>66804.0202</v>
       </c>
       <c r="I9" s="1">
-        <v>81004.4065</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7972</v>
+        <v>66804.0202</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70752.8933</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.9133</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>77012.01300000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0234</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>15.7562</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4806.23</v>
       </c>
       <c r="F10" s="1">
         <v>634.6708</v>
       </c>
       <c r="G10" s="1">
-        <v>5457.1748</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>85538.4862</v>
+        <v>75335.25169999999</v>
       </c>
       <c r="I10" s="1">
-        <v>91004.4065</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>16.6761</v>
+        <v>75335.25169999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80752.8933</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.8017</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>85538.4862</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0169</v>
+        <v>-0.0191</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.3605</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5440.9008</v>
       </c>
       <c r="F11" s="1">
         <v>651.0205</v>
       </c>
       <c r="G11" s="1">
-        <v>6108.1953</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>93338.11010000001</v>
+        <v>83141.3165</v>
       </c>
       <c r="I11" s="1">
-        <v>101004.4065</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>16.5359</v>
+        <v>83141.3165</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90752.8933</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>16.6798</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>93338.11010000001</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.023</v>
+        <v>-0.0257</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>15.2796</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>6091.9212</v>
       </c>
       <c r="F12" s="1">
         <v>654.4674</v>
       </c>
       <c r="G12" s="1">
-        <v>6762.6627</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>102794.5012</v>
+        <v>92599.03049999999</v>
       </c>
       <c r="I12" s="1">
-        <v>111004.4065</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>16.4143</v>
+        <v>92599.03049999999</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100752.8933</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>16.5388</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>102794.5012</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0053</v>
+        <v>-0.0058</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>15.4022</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6746.3886</v>
       </c>
       <c r="F13" s="1">
         <v>649.2578999999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7411.9206</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>113567.6703</v>
+        <v>103370.1907</v>
       </c>
       <c r="I13" s="1">
-        <v>121004.4065</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>16.3256</v>
+        <v>103370.1907</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110752.8933</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.4166</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>113567.6703</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0069</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>16.042</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7395.6465</v>
       </c>
       <c r="F14" s="1">
-        <v>-7411.9206</v>
+        <v>-7395.6465</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118026.3835</v>
       </c>
       <c r="I14" s="1">
-        <v>121004.4065</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>16.3256</v>
+        <v>118026.3835</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>110752.8933</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>14.9754</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>118286.0989</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>118286.0989</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118286.0989</v>
+        <v>118026.3835</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0427</v>
+        <v>0.0411</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>15.9988</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>16.3266</v>
+        <v>14.9761</v>
       </c>
       <c r="D3" s="1">
-        <v>16.3255</v>
+        <v>14.9753</v>
       </c>
       <c r="E3" s="1">
-        <v>16.3256</v>
+        <v>14.9754</v>
       </c>
       <c r="F3" s="1">
-        <v>16.3257</v>
+        <v>14.9754</v>
       </c>
       <c r="G3" s="1">
-        <v>16.3256</v>
+        <v>14.9754</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.0955</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1491</v>
+        <v>-0.09569999999999999</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1489</v>
+        <v>-0.0955</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1489</v>
+        <v>-0.0956</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1489</v>
+        <v>-0.0956</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1489</v>
+        <v>-0.0956</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1194</v>
       </c>
       <c r="C5" s="3">
-        <v>0.0786</v>
+        <v>0.1142</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0789</v>
+        <v>0.1143</v>
       </c>
       <c r="E5" s="3">
-        <v>0.0789</v>
+        <v>0.1143</v>
       </c>
       <c r="F5" s="3">
-        <v>0.0789</v>
+        <v>0.1143</v>
       </c>
       <c r="G5" s="3">
-        <v>0.0789</v>
+        <v>0.1143</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.9698</v>
       </c>
       <c r="C6" s="4">
-        <v>-2.1541</v>
+        <v>-1.0166</v>
       </c>
       <c r="D6" s="4">
-        <v>-2.1456</v>
+        <v>-1.014</v>
       </c>
       <c r="E6" s="4">
-        <v>-2.1461</v>
+        <v>-1.0143</v>
       </c>
       <c r="F6" s="4">
-        <v>-2.1465</v>
+        <v>-1.0146</v>
       </c>
       <c r="G6" s="4">
-        <v>-2.1464</v>
+        <v>-1.0145</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.0265</v>
+        <v>-0.1864</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0263</v>
+        <v>-0.0302</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0263</v>
+        <v>-0.0302</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0263</v>
+        <v>-0.0303</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.0263</v>
+        <v>-0.0303</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1004.4065</v>
+        <v>752.8933</v>
       </c>
       <c r="D8" s="1">
-        <v>1004.436</v>
+        <v>752.9228000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>1004.4189</v>
+        <v>752.9057</v>
       </c>
       <c r="F8" s="1">
-        <v>1004.4018</v>
+        <v>752.8885</v>
       </c>
       <c r="G8" s="1">
-        <v>1004.4065</v>
+        <v>752.8933</v>
       </c>
     </row>
   </sheetData>
